--- a/zootopia.xlsx
+++ b/zootopia.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="210">
   <si>
     <t>საიტზე წარმოდგენილი ბლოკების აღწერა და მათი ფუნქციონალი</t>
   </si>
@@ -596,9 +596,6 @@
     <t>უნდა დააკლდეს რაოდენობას</t>
   </si>
   <si>
-    <t>უნდა ეწეროს სათაური ყველა პროდუქტს</t>
-  </si>
-  <si>
     <t>წასშლის იკონი</t>
   </si>
   <si>
@@ -633,6 +630,30 @@
   </si>
   <si>
     <t>6) პაროლის აღდგენა არ მუშაობს</t>
+  </si>
+  <si>
+    <t>7) იკონის არჩევას აზრი არ ააქვს ავტორიზაციის მერე მაინც სხვა ხვდება. ეგ ნაწილი ცუდად არის გაკეთებული. არცერთი რადიო ბუტონი არ ინნიშნება</t>
+  </si>
+  <si>
+    <t>პროდუქტის რაოდენობის გადამოწმება</t>
+  </si>
+  <si>
+    <t>კალათაში არსებული პროდუქტების რაოდენობა უნდა ემთხვეოდეს იკონაზე არსებულ რაოდენობას. ჰედერში</t>
+  </si>
+  <si>
+    <t>წასშლის იკონიზე კლიკი</t>
+  </si>
+  <si>
+    <t>უნდა წაშალოს ნივთი კალათიდან, დააფდეითოს რაოდენობა</t>
+  </si>
+  <si>
+    <t>შენიშვნები</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testzootopia.loremipsum.ge სატესტო გვედს ჩემი ანტივირუსი ბლოკავდა ამიტომ ტესტების წერა მომიწია zootopia საიტზე</t>
+  </si>
+  <si>
+    <t>საიტზე არსებულ ბაგებთან ერთა კონსოლში ერორებია, fb messenger მიერ გამოწვეული</t>
   </si>
 </sst>
 </file>
@@ -648,7 +669,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -687,6 +708,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -704,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -728,6 +755,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1010,10 +1040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="A197" sqref="A197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1541,7 +1571,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -2328,18 +2358,18 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -2467,53 +2497,81 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>70</v>
+        <v>203</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B187" s="1" t="s">
-        <v>192</v>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/zootopia.xlsx
+++ b/zootopia.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.berishvili\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.berishvili\Documents\GitHub\lasthomework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -209,9 +209,6 @@
     <t>ბოლოს დამატებული პროდუქტების ბლოკში გამოჩნდება საიტზე ბოლო 4 დამატებული პროდუქტი</t>
   </si>
   <si>
-    <t>მაგრამ აქ არის სლაიდერი და ჩანს 4 ზე მეტი, კარუსელის ხარჯძე</t>
-  </si>
-  <si>
     <t>მხოლოდ მაშინ თუ მარაგში არის. უცნაურია ბოლოს დამატებლი ნივთი რომ მარაგში არ არის</t>
   </si>
   <si>
@@ -653,7 +650,10 @@
     <t xml:space="preserve"> testzootopia.loremipsum.ge სატესტო გვედს ჩემი ანტივირუსი ბლოკავდა ამიტომ ტესტების წერა მომიწია zootopia საიტზე</t>
   </si>
   <si>
-    <t>საიტზე არსებულ ბაგებთან ერთა კონსოლში ერორებია, fb messenger მიერ გამოწვეული</t>
+    <t>მაგრამ აქ არის სლაიდერი და ჩანს 4 ზე მეტი, კარუსელის ხარჯზე</t>
+  </si>
+  <si>
+    <t>საიტზე არსებულ ბაგებთან ერთად კონსოლში ერორებია, fb messenger მიერ გამოწვეული</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1178,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,7 +1451,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>4</v>
@@ -1492,7 +1492,7 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1532,7 +1532,7 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>4</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>4</v>
@@ -1572,20 +1572,20 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>4</v>
@@ -1593,12 +1593,12 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>4</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>4</v>
@@ -1622,29 +1622,29 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B75" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" t="s">
         <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" t="s">
         <v>76</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>31</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>31</v>
@@ -1660,7 +1660,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>31</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>31</v>
@@ -1676,29 +1676,29 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>31</v>
@@ -1706,18 +1706,18 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
         <v>87</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>31</v>
@@ -1725,15 +1725,15 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B86" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>31</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>4</v>
@@ -1749,7 +1749,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>4</v>
@@ -1757,7 +1757,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>4</v>
@@ -1765,7 +1765,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>4</v>
@@ -1773,7 +1773,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>4</v>
@@ -1781,45 +1781,45 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
         <v>98</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
         <v>100</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>4</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>4</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>4</v>
@@ -1880,7 +1880,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>4</v>
@@ -1896,12 +1896,12 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>4</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>4</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>31</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>31</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>4</v>
@@ -1941,7 +1941,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>4</v>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>4</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>31</v>
@@ -1965,7 +1965,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>31</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>31</v>
@@ -1981,18 +1981,18 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>31</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>31</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>31</v>
@@ -2016,17 +2016,17 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>4</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>4</v>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>4</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>4</v>
@@ -2072,23 +2072,23 @@
         <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>4</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>4</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>4</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>4</v>
@@ -2120,12 +2120,12 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>4</v>
@@ -2133,12 +2133,12 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>4</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>4</v>
@@ -2154,12 +2154,12 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>4</v>
@@ -2167,23 +2167,23 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
         <v>135</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C143" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>4</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>4</v>
@@ -2199,34 +2199,34 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C146" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
         <v>142</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C148" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>4</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>4</v>
@@ -2242,32 +2242,32 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>4</v>
@@ -2275,7 +2275,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>4</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>4</v>
@@ -2291,18 +2291,18 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C159" t="s">
         <v>152</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C159" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>4</v>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>4</v>
@@ -2318,18 +2318,18 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C162" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>31</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>4</v>
@@ -2345,228 +2345,228 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B173" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B174" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" t="s">
         <v>170</v>
-      </c>
-      <c r="C174" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B176" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.3">
